--- a/Utility/xlsFiles/아기 알파카는 오늘도 꿈을 꾸고 있어요.xlsx
+++ b/Utility/xlsFiles/아기 알파카는 오늘도 꿈을 꾸고 있어요.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F291E3D4-82DA-4D58-9303-9AF7AC44DE8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A543DC2-27F3-4992-A1E8-8C893344ED04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="117">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,62 @@
   </si>
   <si>
     <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3980,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07BD68-F4D3-493E-B579-B52A0BB22360}">
-  <dimension ref="A1:K382"/>
+  <dimension ref="A1:K380"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4033,11 +4089,11 @@
         <v>81</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C76" si="0">(G2*60 + H2)*1000+I2*10</f>
+        <f t="shared" ref="C2:C74" si="0">(G2*60 + H2)*1000+I2*10</f>
         <v>5400</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D76" si="1">CONCATENATE(G2,":",H2,":",I2)</f>
+        <f t="shared" ref="D2:D74" si="1">CONCATENATE(G2,":",H2,":",I2)</f>
         <v>0:05:40</v>
       </c>
       <c r="E2" t="s">
@@ -4062,11 +4118,11 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>5410</v>
+        <v>5400</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:05:41</v>
+        <v>0:05:40</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
@@ -4078,7 +4134,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="K3" s="3"/>
     </row>
@@ -4116,11 +4172,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>10210</v>
+        <v>10200</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:10:21</v>
+        <v>0:10:20</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -4129,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4166,11 +4222,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>15010</v>
+        <v>15000</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:15:01</v>
+        <v>0:15:00</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -4179,7 +4235,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4212,60 +4268,60 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>20400</v>
+        <f t="shared" ref="C9" si="2">(G9*60 + H9)*1000+I9*10</f>
+        <v>19800</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:20:40</v>
+        <f t="shared" ref="D9" si="3">CONCATENATE(G9,":",H9,":",I9)</f>
+        <v>0:19:80</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:20:70</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>89</v>
+        <v>0:21:00</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4275,11 +4331,11 @@
         <f t="shared" si="1"/>
         <v>0:21:00</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
+      <c r="G11" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>7</v>
@@ -4287,252 +4343,252 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>21600</v>
+        <f t="shared" ref="C12:C21" si="4">(G12*60 + H12)*1000+I12*10</f>
+        <v>22200</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:21:60</v>
+        <f t="shared" ref="D12:D21" si="5">CONCATENATE(G12,":",H12,":",I12)</f>
+        <v>0:22:20</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>21900</v>
+        <f t="shared" si="4"/>
+        <v>22200</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:21:90</v>
+        <f t="shared" si="5"/>
+        <v>0:22:20</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C23" si="2">(G14*60 + H14)*1000+I14*10</f>
-        <v>22200</v>
+        <f t="shared" si="4"/>
+        <v>22800</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ref="D14:D23" si="3">CONCATENATE(G14,":",H14,":",I14)</f>
-        <v>0:22:20</v>
+        <f t="shared" si="5"/>
+        <v>0:22:80</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>22500</v>
+        <f t="shared" si="4"/>
+        <v>22800</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0:22:50</v>
+        <f t="shared" si="5"/>
+        <v>0:22:80</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>22800</v>
+        <f t="shared" ref="C16:C21" si="6">(G16*60 + H16)*1000+I16*10</f>
+        <v>23400</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0:22:80</v>
+        <f t="shared" ref="D16:D21" si="7">CONCATENATE(G16,":",H16,":",I16)</f>
+        <v>0:23:40</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>23100</v>
+        <f t="shared" si="6"/>
+        <v>23400</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0:23:10</v>
+        <f t="shared" si="7"/>
+        <v>0:23:40</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
-        <v>23400</v>
+        <f t="shared" si="6"/>
+        <v>24000</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0:23:40</v>
+        <f t="shared" si="7"/>
+        <v>0:24:00</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>23700</v>
+        <f t="shared" si="6"/>
+        <v>24000</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0:23:70</v>
+        <f t="shared" si="7"/>
+        <v>0:24:00</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
-        <v>24000</v>
+        <f t="shared" si="6"/>
+        <v>24600</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0:24:00</v>
+        <f t="shared" si="7"/>
+        <v>0:24:60</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C22" si="4">(G21*60 + H21)*1000+I21*10</f>
-        <v>24300</v>
+        <f t="shared" si="6"/>
+        <v>24600</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" ref="D21:D22" si="5">CONCATENATE(G21,":",H21,":",I21)</f>
-        <v>0:24:30</v>
+        <f t="shared" si="7"/>
+        <v>0:24:60</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4540,77 +4596,77 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
-        <v>24600</v>
+        <f t="shared" si="0"/>
+        <v>29400</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>0:24:60</v>
+        <f t="shared" si="1"/>
+        <v>0:29:40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
-        <v>24610</v>
+        <f t="shared" si="0"/>
+        <v>30600</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>0:24:61</v>
+        <f t="shared" si="1"/>
+        <v>0:30:60</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
         <v>81</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>29400</v>
+        <v>31800</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:29:40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>89</v>
+        <v>0:31:80</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -4622,20 +4678,20 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>30600</v>
+        <v>33000</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:30:60</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>89</v>
+        <v>0:33:00</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4647,70 +4703,67 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>34200</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:31:80</v>
+        <v>0:34:20</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
       <c r="B27" t="s">
         <v>81</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>33000</v>
+        <v>39000</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:33:00</v>
+        <v>0:39:00</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
       <c r="B28" t="s">
         <v>81</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>34200</v>
+        <v>39520</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:34:20</v>
+        <v>0:39:52</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -4719,23 +4772,20 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>39000</v>
+        <v>40200</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:39:00</v>
-      </c>
-      <c r="E29" t="s">
-        <v>76</v>
+        <v>0:40:20</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4744,20 +4794,20 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>39520</v>
+        <v>40800</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:39:52</v>
+        <v>0:40:80</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4766,20 +4816,20 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>40200</v>
+        <v>41400</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:40:20</v>
+        <v>0:41:40</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
       </c>
       <c r="H31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4788,20 +4838,20 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>40800</v>
+        <v>42000</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:40:80</v>
+        <v>0:42:00</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -4810,20 +4860,20 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>41400</v>
+        <v>42600</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:41:40</v>
+        <v>0:42:60</v>
       </c>
       <c r="G33" s="5">
         <v>0</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -4832,20 +4882,20 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>42000</v>
+        <v>43200</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:42:00</v>
+        <v>0:43:20</v>
       </c>
       <c r="G34" s="5">
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="I34" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
@@ -4854,20 +4904,20 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>42600</v>
+        <v>43800</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:42:60</v>
+        <v>0:43:80</v>
       </c>
       <c r="G35" s="5">
         <v>0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -4876,20 +4926,20 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>43200</v>
+        <v>44400</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:43:20</v>
+        <v>0:44:40</v>
       </c>
       <c r="G36" s="5">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="5">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
@@ -4898,20 +4948,20 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>43800</v>
+        <v>45000</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:43:80</v>
+        <v>0:45:00</v>
       </c>
       <c r="G37" s="5">
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -4920,20 +4970,20 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>44400</v>
+        <v>45600</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:44:40</v>
+        <v>0:45:60</v>
       </c>
       <c r="G38" s="5">
         <v>0</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -4942,20 +4992,20 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>46200</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:45:00</v>
+        <v>0:46:20</v>
       </c>
       <c r="G39" s="5">
         <v>0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
@@ -4964,20 +5014,20 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>45600</v>
+        <v>46800</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:45:60</v>
+        <v>0:46:80</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
@@ -4986,20 +5036,20 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>46200</v>
+        <v>47400</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:46:20</v>
+        <v>0:47:40</v>
       </c>
       <c r="G41" s="5">
         <v>0</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
@@ -5008,20 +5058,20 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>46800</v>
+        <v>48000</v>
       </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:46:80</v>
+        <v>0:48:00</v>
       </c>
       <c r="G42" s="5">
         <v>0</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
@@ -5030,20 +5080,23 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>47400</v>
+        <v>48600</v>
       </c>
       <c r="D43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:47:40</v>
+        <v>0:48:60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
       </c>
       <c r="G43" s="5">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -5052,20 +5105,20 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>48000</v>
+        <v>49120</v>
       </c>
       <c r="D44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:48:00</v>
+        <v>0:49:12</v>
       </c>
       <c r="G44" s="5">
         <v>0</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -5074,23 +5127,20 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>48600</v>
+        <v>49800</v>
       </c>
       <c r="D45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:48:60</v>
-      </c>
-      <c r="E45" t="s">
-        <v>38</v>
+        <v>0:49:80</v>
       </c>
       <c r="G45" s="5">
         <v>0</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
@@ -5099,20 +5149,20 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>49120</v>
+        <v>50400</v>
       </c>
       <c r="D46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:49:12</v>
+        <v>0:50:40</v>
       </c>
       <c r="G46" s="5">
         <v>0</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
@@ -5121,20 +5171,20 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>49800</v>
+        <v>51000</v>
       </c>
       <c r="D47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:49:80</v>
+        <v>0:51:00</v>
       </c>
       <c r="G47" s="5">
         <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
@@ -5143,20 +5193,20 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>51600</v>
       </c>
       <c r="D48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:50:40</v>
+        <v>0:51:60</v>
       </c>
       <c r="G48" s="5">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
@@ -5165,20 +5215,20 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>51000</v>
+        <v>52200</v>
       </c>
       <c r="D49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:51:00</v>
+        <v>0:52:20</v>
       </c>
       <c r="G49" s="5">
         <v>0</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="I49" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
@@ -5187,20 +5237,20 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>51600</v>
+        <v>52800</v>
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:51:60</v>
+        <v>0:52:80</v>
       </c>
       <c r="G50" s="5">
         <v>0</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
@@ -5209,20 +5259,20 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>52200</v>
+        <v>53400</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:52:20</v>
+        <v>0:53:40</v>
       </c>
       <c r="G51" s="5">
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="5">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
@@ -5231,20 +5281,20 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>52800</v>
+        <v>54000</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:52:80</v>
+        <v>0:54:00</v>
       </c>
       <c r="G52" s="5">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
@@ -5253,20 +5303,20 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>53400</v>
+        <v>54600</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:53:40</v>
+        <v>0:54:60</v>
       </c>
       <c r="G53" s="5">
         <v>0</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
@@ -5275,20 +5325,20 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>54000</v>
+        <v>55200</v>
       </c>
       <c r="D54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:54:00</v>
+        <v>0:55:20</v>
       </c>
       <c r="G54" s="5">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
@@ -5297,20 +5347,20 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>54600</v>
+        <v>55800</v>
       </c>
       <c r="D55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:54:60</v>
+        <v>0:55:80</v>
       </c>
       <c r="G55" s="5">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
@@ -5319,20 +5369,20 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>55200</v>
+        <v>56400</v>
       </c>
       <c r="D56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:55:20</v>
+        <v>0:56:40</v>
       </c>
       <c r="G56" s="5">
         <v>0</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
@@ -5341,20 +5391,20 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>55800</v>
+        <v>57000</v>
       </c>
       <c r="D57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:55:80</v>
+        <v>0:57:00</v>
       </c>
       <c r="G57" s="5">
         <v>0</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
@@ -5363,20 +5413,20 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>56400</v>
+        <v>57600</v>
       </c>
       <c r="D58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:56:40</v>
+        <v>0:57:60</v>
       </c>
       <c r="G58" s="5">
         <v>0</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
@@ -5385,20 +5435,23 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>57000</v>
+        <v>58200</v>
       </c>
       <c r="D59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:57:00</v>
+        <v>0:58:20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
@@ -5407,20 +5460,20 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>57600</v>
+        <v>58800</v>
       </c>
       <c r="D60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:57:60</v>
+        <v>0:58:80</v>
       </c>
       <c r="G60" s="5">
         <v>0</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
@@ -5429,23 +5482,20 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>58200</v>
+        <v>59100</v>
       </c>
       <c r="D61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:58:20</v>
-      </c>
-      <c r="E61" t="s">
-        <v>48</v>
+        <v>0:59:10</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
@@ -5454,20 +5504,20 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>58800</v>
+        <v>59400</v>
       </c>
       <c r="D62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:58:80</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0</v>
+        <v>0:59:40</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
@@ -5476,20 +5526,20 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>59100</v>
+        <v>60000</v>
       </c>
       <c r="D63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:59:10</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0</v>
+        <v>1:00:00</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
@@ -5498,20 +5548,20 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>59400</v>
+        <v>60600</v>
       </c>
       <c r="D64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:59:40</v>
+        <v>1:00:60</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
@@ -5520,20 +5570,20 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>61200</v>
       </c>
       <c r="D65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:00:00</v>
+        <v>1:01:20</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
@@ -5542,20 +5592,20 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>60600</v>
+        <v>61800</v>
       </c>
       <c r="D66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:00:60</v>
+        <v>1:01:80</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
@@ -5564,20 +5614,20 @@
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>61200</v>
+        <v>62400</v>
       </c>
       <c r="D67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:01:20</v>
+        <v>1:02:40</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
@@ -5586,20 +5636,20 @@
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
-        <v>61800</v>
+        <v>63000</v>
       </c>
       <c r="D68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:01:80</v>
+        <v>1:03:00</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -5608,20 +5658,20 @@
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
-        <v>62400</v>
+        <v>63600</v>
       </c>
       <c r="D69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:02:40</v>
+        <v>1:03:60</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
@@ -5630,20 +5680,20 @@
       </c>
       <c r="C70">
         <f t="shared" si="0"/>
-        <v>63000</v>
+        <v>64200</v>
       </c>
       <c r="D70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:03:00</v>
+        <v>1:04:20</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
@@ -5652,20 +5702,20 @@
       </c>
       <c r="C71">
         <f t="shared" si="0"/>
-        <v>63600</v>
+        <v>64800</v>
       </c>
       <c r="D71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:03:60</v>
+        <v>1:04:80</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
@@ -5674,20 +5724,20 @@
       </c>
       <c r="C72">
         <f t="shared" si="0"/>
-        <v>64200</v>
+        <v>65400</v>
       </c>
       <c r="D72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:04:20</v>
+        <v>1:05:40</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
@@ -5696,20 +5746,20 @@
       </c>
       <c r="C73">
         <f t="shared" si="0"/>
-        <v>64800</v>
+        <v>66000</v>
       </c>
       <c r="D73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:04:80</v>
+        <v>1:06:00</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -5718,20 +5768,20 @@
       </c>
       <c r="C74">
         <f t="shared" si="0"/>
-        <v>65400</v>
+        <v>66600</v>
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1:05:40</v>
+        <v>1:06:60</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
@@ -5739,21 +5789,21 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <f t="shared" si="0"/>
-        <v>66000</v>
+        <f t="shared" ref="C75:C116" si="8">(G75*60 + H75)*1000+I75*10</f>
+        <v>67200</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:06:00</v>
+        <f t="shared" ref="D75:D116" si="9">CONCATENATE(G75,":",H75,":",I75)</f>
+        <v>1:07:20</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
@@ -5761,21 +5811,24 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <f t="shared" si="0"/>
-        <v>66600</v>
+        <f t="shared" si="8"/>
+        <v>67800</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:06:60</v>
+        <f t="shared" si="9"/>
+        <v>1:07:80</v>
+      </c>
+      <c r="E76" t="s">
+        <v>61</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
@@ -5783,21 +5836,21 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:C142" si="6">(G77*60 + H77)*1000+I77*10</f>
-        <v>67200</v>
+        <f t="shared" si="8"/>
+        <v>68400</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" ref="D77:D141" si="7">CONCATENATE(G77,":",H77,":",I77)</f>
-        <v>1:07:20</v>
+        <f t="shared" si="9"/>
+        <v>1:08:40</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -5805,24 +5858,21 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <f t="shared" si="6"/>
-        <v>67800</v>
+        <f t="shared" si="8"/>
+        <v>68700</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:07:80</v>
-      </c>
-      <c r="E78" t="s">
-        <v>61</v>
+        <f t="shared" si="9"/>
+        <v>1:08:70</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
@@ -5830,21 +5880,21 @@
         <v>81</v>
       </c>
       <c r="C79">
-        <f t="shared" si="6"/>
-        <v>68400</v>
+        <f t="shared" si="8"/>
+        <v>69000</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:08:40</v>
+        <f t="shared" si="9"/>
+        <v>1:09:00</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
@@ -5852,21 +5902,21 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <f t="shared" si="6"/>
-        <v>68700</v>
+        <f t="shared" si="8"/>
+        <v>69600</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:08:70</v>
+        <f t="shared" si="9"/>
+        <v>1:09:60</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
@@ -5874,12 +5924,12 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <f t="shared" si="6"/>
-        <v>69000</v>
+        <f t="shared" si="8"/>
+        <v>69900</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:09:00</v>
+        <f t="shared" si="9"/>
+        <v>1:09:90</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>47</v>
@@ -5888,7 +5938,7 @@
         <v>58</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
@@ -5896,21 +5946,21 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <f t="shared" si="6"/>
-        <v>69600</v>
+        <f t="shared" si="8"/>
+        <v>70200</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:09:60</v>
+        <f t="shared" si="9"/>
+        <v>1:10:20</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
@@ -5918,21 +5968,21 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <f t="shared" si="6"/>
-        <v>69900</v>
+        <f t="shared" si="8"/>
+        <v>70800</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:09:90</v>
+        <f t="shared" si="9"/>
+        <v>1:10:80</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
@@ -5940,21 +5990,21 @@
         <v>81</v>
       </c>
       <c r="C84">
-        <f t="shared" si="6"/>
-        <v>70200</v>
+        <f t="shared" si="8"/>
+        <v>71400</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:10:20</v>
+        <f t="shared" si="9"/>
+        <v>1:11:40</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
@@ -5962,21 +6012,21 @@
         <v>81</v>
       </c>
       <c r="C85">
-        <f t="shared" si="6"/>
-        <v>70800</v>
+        <f t="shared" si="8"/>
+        <v>72000</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:10:80</v>
+        <f t="shared" si="9"/>
+        <v>1:12:00</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
@@ -5984,21 +6034,21 @@
         <v>81</v>
       </c>
       <c r="C86">
-        <f t="shared" si="6"/>
-        <v>71400</v>
+        <f t="shared" si="8"/>
+        <v>72600</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:11:40</v>
+        <f t="shared" si="9"/>
+        <v>1:12:60</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
@@ -6006,21 +6056,21 @@
         <v>81</v>
       </c>
       <c r="C87">
-        <f t="shared" si="6"/>
-        <v>72000</v>
+        <f t="shared" si="8"/>
+        <v>73200</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:12:00</v>
+        <f t="shared" si="9"/>
+        <v>1:13:20</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
@@ -6028,21 +6078,21 @@
         <v>81</v>
       </c>
       <c r="C88">
-        <f t="shared" si="6"/>
-        <v>72600</v>
+        <f t="shared" si="8"/>
+        <v>73800</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:12:60</v>
+        <f t="shared" si="9"/>
+        <v>1:13:80</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
@@ -6050,21 +6100,21 @@
         <v>81</v>
       </c>
       <c r="C89">
-        <f t="shared" si="6"/>
-        <v>73200</v>
+        <f t="shared" si="8"/>
+        <v>74400</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:13:20</v>
+        <f t="shared" si="9"/>
+        <v>1:14:40</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H89" s="5" t="s">
-        <v>62</v>
+      <c r="H89" s="5">
+        <v>14</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
@@ -6072,21 +6122,21 @@
         <v>81</v>
       </c>
       <c r="C90">
-        <f t="shared" si="6"/>
-        <v>73800</v>
+        <f t="shared" si="8"/>
+        <v>75000</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:13:80</v>
+        <f t="shared" si="9"/>
+        <v>1:15:00</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>62</v>
+      <c r="H90" s="5">
+        <v>15</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
@@ -6094,21 +6144,21 @@
         <v>81</v>
       </c>
       <c r="C91">
-        <f t="shared" si="6"/>
-        <v>74400</v>
+        <f t="shared" si="8"/>
+        <v>75600</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:14:40</v>
+        <f t="shared" si="9"/>
+        <v>1:15:60</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H91" s="5">
-        <v>14</v>
+      <c r="H91" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
@@ -6116,21 +6166,21 @@
         <v>81</v>
       </c>
       <c r="C92">
-        <f t="shared" si="6"/>
-        <v>75000</v>
+        <f t="shared" si="8"/>
+        <v>76200</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:15:00</v>
+        <f t="shared" si="9"/>
+        <v>1:16:20</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H92" s="5">
-        <v>15</v>
+      <c r="H92" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
@@ -6138,21 +6188,21 @@
         <v>81</v>
       </c>
       <c r="C93">
-        <f t="shared" si="6"/>
-        <v>75600</v>
+        <f t="shared" si="8"/>
+        <v>76800</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:15:60</v>
+        <f t="shared" si="9"/>
+        <v>1:16:80</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
@@ -6160,21 +6210,24 @@
         <v>81</v>
       </c>
       <c r="C94">
-        <f t="shared" si="6"/>
-        <v>76200</v>
+        <f t="shared" si="8"/>
+        <v>77400</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:16:20</v>
+        <f t="shared" si="9"/>
+        <v>1:17:40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>66</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
@@ -6182,21 +6235,21 @@
         <v>81</v>
       </c>
       <c r="C95">
-        <f t="shared" si="6"/>
-        <v>76800</v>
+        <f t="shared" si="8"/>
+        <v>78000</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:16:80</v>
+        <f t="shared" si="9"/>
+        <v>1:18:00</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
@@ -6204,24 +6257,21 @@
         <v>81</v>
       </c>
       <c r="C96">
-        <f t="shared" si="6"/>
-        <v>77400</v>
+        <f t="shared" si="8"/>
+        <v>78300</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:17:40</v>
-      </c>
-      <c r="E96" t="s">
-        <v>66</v>
+        <f t="shared" si="9"/>
+        <v>1:18:30</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
@@ -6229,12 +6279,12 @@
         <v>81</v>
       </c>
       <c r="C97">
-        <f t="shared" si="6"/>
-        <v>78000</v>
+        <f t="shared" si="8"/>
+        <v>78600</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:18:00</v>
+        <f t="shared" si="9"/>
+        <v>1:18:60</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>47</v>
@@ -6243,7 +6293,7 @@
         <v>65</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
@@ -6251,21 +6301,21 @@
         <v>81</v>
       </c>
       <c r="C98">
-        <f t="shared" si="6"/>
-        <v>78300</v>
+        <f t="shared" si="8"/>
+        <v>79200</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:18:30</v>
+        <f t="shared" si="9"/>
+        <v>1:19:20</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
@@ -6273,21 +6323,21 @@
         <v>81</v>
       </c>
       <c r="C99">
-        <f t="shared" si="6"/>
-        <v>78600</v>
+        <f t="shared" si="8"/>
+        <v>79500</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:18:60</v>
+        <f t="shared" si="9"/>
+        <v>1:19:50</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
@@ -6295,12 +6345,12 @@
         <v>81</v>
       </c>
       <c r="C100">
-        <f t="shared" si="6"/>
-        <v>79200</v>
+        <f t="shared" si="8"/>
+        <v>79800</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:19:20</v>
+        <f t="shared" si="9"/>
+        <v>1:19:80</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>47</v>
@@ -6309,7 +6359,7 @@
         <v>11</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
@@ -6317,21 +6367,21 @@
         <v>81</v>
       </c>
       <c r="C101">
-        <f t="shared" si="6"/>
-        <v>79500</v>
+        <f t="shared" si="8"/>
+        <v>80400</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:19:50</v>
+        <f t="shared" si="9"/>
+        <v>1:20:40</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
@@ -6339,21 +6389,21 @@
         <v>81</v>
       </c>
       <c r="C102">
-        <f t="shared" si="6"/>
-        <v>79800</v>
+        <f t="shared" si="8"/>
+        <v>81000</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:19:80</v>
+        <f t="shared" si="9"/>
+        <v>1:21:00</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
@@ -6361,21 +6411,21 @@
         <v>81</v>
       </c>
       <c r="C103">
-        <f t="shared" si="6"/>
-        <v>80400</v>
+        <f t="shared" si="8"/>
+        <v>81600</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:20:40</v>
+        <f t="shared" si="9"/>
+        <v>1:21:60</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
@@ -6383,21 +6433,21 @@
         <v>81</v>
       </c>
       <c r="C104">
-        <f t="shared" si="6"/>
-        <v>81000</v>
+        <f t="shared" si="8"/>
+        <v>82200</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:21:00</v>
+        <f t="shared" si="9"/>
+        <v>1:22:20</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
@@ -6405,21 +6455,24 @@
         <v>81</v>
       </c>
       <c r="C105">
-        <f t="shared" si="6"/>
-        <v>81600</v>
+        <f t="shared" si="8"/>
+        <v>87000</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:21:60</v>
+        <f t="shared" si="9"/>
+        <v>1:27:00</v>
+      </c>
+      <c r="E105" t="s">
+        <v>69</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.3">
@@ -6427,21 +6480,21 @@
         <v>81</v>
       </c>
       <c r="C106">
-        <f t="shared" si="6"/>
-        <v>82200</v>
+        <f t="shared" si="8"/>
+        <v>87600</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:22:20</v>
+        <f t="shared" si="9"/>
+        <v>1:27:60</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
@@ -6449,15 +6502,12 @@
         <v>81</v>
       </c>
       <c r="C107">
-        <f t="shared" si="6"/>
-        <v>87000</v>
+        <f t="shared" si="8"/>
+        <v>87900</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:27:00</v>
-      </c>
-      <c r="E107" t="s">
-        <v>69</v>
+        <f t="shared" si="9"/>
+        <v>1:27:90</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>47</v>
@@ -6466,7 +6516,7 @@
         <v>67</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.3">
@@ -6474,21 +6524,21 @@
         <v>81</v>
       </c>
       <c r="C108">
-        <f t="shared" si="6"/>
-        <v>87600</v>
+        <f t="shared" si="8"/>
+        <v>88200</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:27:60</v>
+        <f t="shared" si="9"/>
+        <v>1:28:20</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
@@ -6496,21 +6546,21 @@
         <v>81</v>
       </c>
       <c r="C109">
-        <f t="shared" si="6"/>
-        <v>87900</v>
+        <f t="shared" si="8"/>
+        <v>88800</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:27:90</v>
+        <f t="shared" si="9"/>
+        <v>1:28:80</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
@@ -6518,21 +6568,21 @@
         <v>81</v>
       </c>
       <c r="C110">
-        <f t="shared" si="6"/>
-        <v>88200</v>
+        <f t="shared" si="8"/>
+        <v>89100</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:28:20</v>
+        <f t="shared" si="9"/>
+        <v>1:29:10</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.3">
@@ -6540,21 +6590,21 @@
         <v>81</v>
       </c>
       <c r="C111">
-        <f t="shared" si="6"/>
-        <v>88800</v>
+        <f t="shared" si="8"/>
+        <v>89400</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:28:80</v>
+        <f t="shared" si="9"/>
+        <v>1:29:40</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.3">
@@ -6562,21 +6612,21 @@
         <v>81</v>
       </c>
       <c r="C112">
-        <f t="shared" si="6"/>
-        <v>89100</v>
+        <f t="shared" si="8"/>
+        <v>90000</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:29:10</v>
+        <f t="shared" si="9"/>
+        <v>1:30:00</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.3">
@@ -6584,21 +6634,21 @@
         <v>81</v>
       </c>
       <c r="C113">
-        <f t="shared" si="6"/>
-        <v>89400</v>
+        <f t="shared" si="8"/>
+        <v>90600</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:29:40</v>
+        <f t="shared" si="9"/>
+        <v>1:30:60</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
@@ -6606,21 +6656,21 @@
         <v>81</v>
       </c>
       <c r="C114">
-        <f t="shared" si="6"/>
-        <v>90000</v>
+        <f t="shared" si="8"/>
+        <v>91200</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:30:00</v>
+        <f t="shared" si="9"/>
+        <v>1:31:20</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
@@ -6628,21 +6678,21 @@
         <v>81</v>
       </c>
       <c r="C115">
-        <f t="shared" si="6"/>
-        <v>90600</v>
+        <f t="shared" si="8"/>
+        <v>91800</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:30:60</v>
+        <f t="shared" si="9"/>
+        <v>1:31:80</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.3">
@@ -6650,69 +6700,31 @@
         <v>81</v>
       </c>
       <c r="C116">
-        <f t="shared" si="6"/>
-        <v>91200</v>
+        <f t="shared" si="8"/>
+        <v>96600</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:31:20</v>
+        <f t="shared" si="9"/>
+        <v>1:36:60</v>
+      </c>
+      <c r="E116" t="s">
+        <v>70</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>81</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="6"/>
-        <v>91800</v>
-      </c>
-      <c r="D117" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:31:80</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D117" s="1"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>81</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="6"/>
-        <v>96600</v>
-      </c>
-      <c r="D118" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1:36:60</v>
-      </c>
-      <c r="E118" t="s">
-        <v>70</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D118" s="1"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
@@ -7499,12 +7511,6 @@
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D380" s="1"/>
-    </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D381" s="1"/>
-    </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D382" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7517,8 +7523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C2239-5337-493D-BF32-9002E7D7184B}">
   <dimension ref="A1:K382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="A1:E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9318,11 +9324,11 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:C142" si="2">(G77*60 + H77)*1000+I77*10</f>
+        <f t="shared" ref="C77:C118" si="2">(G77*60 + H77)*1000+I77*10</f>
         <v>67200</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" ref="D77:D141" si="3">CONCATENATE(G77,":",H77,":",I77)</f>
+        <f t="shared" ref="D77:D118" si="3">CONCATENATE(G77,":",H77,":",I77)</f>
         <v>1:07:20</v>
       </c>
       <c r="G77" s="5" t="s">

--- a/Utility/xlsFiles/아기 알파카는 오늘도 꿈을 꾸고 있어요.xlsx
+++ b/Utility/xlsFiles/아기 알파카는 오늘도 꿈을 꾸고 있어요.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A543DC2-27F3-4992-A1E8-8C893344ED04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC025542-6D9A-45F7-B23E-FBFC83CBD440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="130">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,58 @@
     <t>60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -549,12 +601,1944 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="256">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -832,7 +2816,7 @@
   <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
+      <selection activeCell="J1" sqref="J1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,6 +2857,10 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -926,7 +2914,6 @@
       <c r="I3" s="5">
         <v>40</v>
       </c>
-      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4028,7 +6015,102 @@
       <c r="D369" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J3:J24">
+    <cfRule type="expression" dxfId="71" priority="22">
+      <formula>IF(AND(EXACT($A3,"w"), EXACT($B3,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="23">
+      <formula>IF(AND(EXACT($A3,"c"), EXACT($B3,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="24">
+      <formula>IF(AND(EXACT($A3,"m"), EXACT($B3,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="25">
+      <formula>IF(AND(EXACT($A3,"y"), EXACT($B3,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="26">
+      <formula>IF(AND(EXACT($A3,"b"), EXACT($B3,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="27">
+      <formula>IF(AND(EXACT($A3,"g"), EXACT($B3,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="28">
+      <formula>IF(AND(EXACT($A3,"r"), EXACT($B3,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K24">
+    <cfRule type="expression" dxfId="64" priority="15">
+      <formula>IF(AND(EXACT($A3,"w"), EXACT($B3,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="16">
+      <formula>IF(AND(EXACT($A3,"c"), EXACT($B3,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="17">
+      <formula>IF(AND(EXACT($A3,"m"), EXACT($B3,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="18">
+      <formula>IF(AND(EXACT($A3,"y"), EXACT($B3,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="19">
+      <formula>IF(AND(EXACT($A3,"b"), EXACT($B3,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="20">
+      <formula>IF(AND(EXACT($A3,"g"), EXACT($B3,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="21">
+      <formula>IF(AND(EXACT($A3,"r"), EXACT($B3,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="expression" dxfId="57" priority="8">
+      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="9">
+      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="10">
+      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="11">
+      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="12">
+      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="13">
+      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="14">
+      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="expression" dxfId="50" priority="1">
+      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="2">
+      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="3">
+      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="4">
+      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="5">
+      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="6">
+      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="7">
+      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4036,10 +6118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07BD68-F4D3-493E-B579-B52A0BB22360}">
-  <dimension ref="A1:K380"/>
+  <dimension ref="A1:K397"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4080,6 +6162,10 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4089,11 +6175,11 @@
         <v>81</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C74" si="0">(G2*60 + H2)*1000+I2*10</f>
+        <f t="shared" ref="C2:C91" si="0">(G2*60 + H2)*1000+I2*10</f>
         <v>5400</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D74" si="1">CONCATENATE(G2,":",H2,":",I2)</f>
+        <f t="shared" ref="D2:D91" si="1">CONCATENATE(G2,":",H2,":",I2)</f>
         <v>0:05:40</v>
       </c>
       <c r="E2" t="s">
@@ -4136,7 +6222,6 @@
       <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4349,11 +6434,11 @@
         <v>92</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C21" si="4">(G12*60 + H12)*1000+I12*10</f>
+        <f t="shared" ref="C12:C15" si="4">(G12*60 + H12)*1000+I12*10</f>
         <v>22200</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" ref="D12:D21" si="5">CONCATENATE(G12,":",H12,":",I12)</f>
+        <f t="shared" ref="D12:D15" si="5">CONCATENATE(G12,":",H12,":",I12)</f>
         <v>0:22:20</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -4593,7 +6678,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -4621,2187 +6706,2361 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>30600</v>
+        <v>29400</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:30:60</v>
+        <v>0:29:40</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
         <v>81</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>30600</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:31:80</v>
+        <v>0:30:60</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>33000</v>
+        <v>30600</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:33:00</v>
+        <v>0:30:60</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C26:C34" si="8">(G26*60 + H26)*1000+I26*10</f>
+        <v>31800</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" ref="D26:D34" si="9">CONCATENATE(G26,":",H26,":",I26)</f>
+        <v>0:31:80</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="8"/>
+        <v>31800</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>0:31:80</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="8"/>
+        <v>32400</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>0:32:40</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="8"/>
+        <v>32400</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>0:32:40</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="8"/>
+        <v>33000</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>0:33:00</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="8"/>
+        <v>33000</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>0:33:00</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="8"/>
+        <v>33600</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>0:33:60</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="8"/>
+        <v>33600</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>0:33:60</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="8"/>
         <v>34200</v>
       </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>0:34:20</v>
       </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>34200</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:34:20</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="0"/>
         <v>39000</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:39:00</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E36" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="0"/>
         <v>39520</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:39:52</v>
       </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="0"/>
         <v>40200</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:40:20</v>
       </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="0"/>
         <v>40800</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:40:80</v>
       </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="0"/>
         <v>41400</v>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:41:40</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5" t="s">
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41">
         <f t="shared" si="0"/>
         <v>42000</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="D41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:42:00</v>
       </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5" t="s">
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C49" si="10">(G42*60 + H42)*1000+I42*10</f>
         <v>42600</v>
       </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D42" s="1" t="str">
+        <f t="shared" ref="D42:D49" si="11">CONCATENATE(G42,":",H42,":",I42)</f>
         <v>0:42:60</v>
       </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5" t="s">
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="10"/>
+        <v>42900</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>0:42:90</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="10"/>
         <v>43200</v>
       </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>0:43:20</v>
       </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I44" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="10"/>
+        <v>43500</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>0:43:50</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="10"/>
         <v>43800</v>
       </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>0:43:80</v>
       </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5" t="s">
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="10"/>
         <v>44400</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>0:44:40</v>
       </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5" t="s">
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="10"/>
         <v>45000</v>
       </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>0:45:00</v>
       </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5" t="s">
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="10"/>
         <v>45600</v>
       </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>0:45:60</v>
       </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5" t="s">
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50">
         <f t="shared" si="0"/>
         <v>46200</v>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="D50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:46:20</v>
       </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5" t="s">
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51">
         <f t="shared" si="0"/>
         <v>46800</v>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="D51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:46:80</v>
       </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5" t="s">
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52">
         <f t="shared" si="0"/>
         <v>47400</v>
       </c>
-      <c r="D41" s="1" t="str">
+      <c r="D52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:47:40</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5" t="s">
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>47700</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:47:70</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54" si="12">(G54*60 + H54)*1000+I54*10</f>
         <v>48000</v>
       </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D54" s="1" t="str">
+        <f t="shared" ref="D54" si="13">CONCATENATE(G54,":",H54,":",I54)</f>
         <v>0:48:00</v>
       </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5" t="s">
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55" si="14">(G55*60 + H55)*1000+I55*10</f>
+        <v>48300</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" ref="D55" si="15">CONCATENATE(G55,":",H55,":",I55)</f>
+        <v>0:48:30</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C56">
         <f t="shared" si="0"/>
         <v>48600</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:48:60</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E56" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C57">
         <f t="shared" si="0"/>
         <v>49120</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:49:12</v>
       </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C58">
         <f t="shared" si="0"/>
         <v>49800</v>
       </c>
-      <c r="D45" s="1" t="str">
+      <c r="D58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:49:80</v>
       </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5" t="s">
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C59">
         <f t="shared" si="0"/>
         <v>50400</v>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="D59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:50:40</v>
       </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5" t="s">
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C60">
         <f t="shared" si="0"/>
         <v>51000</v>
       </c>
-      <c r="D47" s="1" t="str">
+      <c r="D60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:51:00</v>
       </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5" t="s">
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I60" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C61">
         <f t="shared" si="0"/>
         <v>51600</v>
       </c>
-      <c r="D48" s="1" t="str">
+      <c r="D61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:51:60</v>
       </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I61" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C62">
         <f t="shared" si="0"/>
         <v>52200</v>
       </c>
-      <c r="D49" s="1" t="str">
+      <c r="D62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:52:20</v>
       </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5" t="s">
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I62" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C63">
         <f t="shared" si="0"/>
         <v>52800</v>
       </c>
-      <c r="D50" s="1" t="str">
+      <c r="D63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:52:80</v>
       </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C64">
         <f t="shared" si="0"/>
         <v>53400</v>
       </c>
-      <c r="D51" s="1" t="str">
+      <c r="D64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:53:40</v>
       </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5" t="s">
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I64" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C65">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
-      <c r="D52" s="1" t="str">
+      <c r="D65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:54:00</v>
       </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5" t="s">
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I65" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C66">
         <f t="shared" si="0"/>
         <v>54600</v>
       </c>
-      <c r="D53" s="1" t="str">
+      <c r="D66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:54:60</v>
       </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I66" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C67">
         <f t="shared" si="0"/>
         <v>55200</v>
       </c>
-      <c r="D54" s="1" t="str">
+      <c r="D67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:55:20</v>
       </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5" t="s">
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C68">
         <f t="shared" si="0"/>
         <v>55800</v>
       </c>
-      <c r="D55" s="1" t="str">
+      <c r="D68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:55:80</v>
       </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I68" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C69">
         <f t="shared" si="0"/>
         <v>56400</v>
       </c>
-      <c r="D56" s="1" t="str">
+      <c r="D69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:56:40</v>
       </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5" t="s">
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>::</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>::</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72" si="16">(G72*60 + H72)*1000+I72*10</f>
         <v>57000</v>
       </c>
-      <c r="D57" s="1" t="str">
+      <c r="D72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:57:00</v>
       </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5" t="s">
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:D75" si="17">(G73*60 + H73)*1000+I73*10</f>
+        <v>57300</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:57:30</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="17"/>
         <v>57600</v>
       </c>
-      <c r="D58" s="1" t="str">
+      <c r="D74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0:57:60</v>
       </c>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5" t="s">
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>58200</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:58:20</v>
-      </c>
-      <c r="E59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>58800</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:58:80</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>59100</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:59:10</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>59400</v>
-      </c>
-      <c r="D62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:59:40</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:00:00</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>60600</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:00:60</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>61200</v>
-      </c>
-      <c r="D65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:01:20</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="0"/>
-        <v>61800</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:01:80</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:02:40</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="0"/>
-        <v>63000</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:03:00</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="0"/>
-        <v>63600</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:03:60</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="0"/>
-        <v>64200</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:04:20</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="0"/>
-        <v>64800</v>
-      </c>
-      <c r="D71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:04:80</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="0"/>
-        <v>65400</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:05:40</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="0"/>
-        <v>66000</v>
-      </c>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:06:00</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="0"/>
-        <v>66600</v>
-      </c>
-      <c r="D74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:06:60</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C116" si="8">(G75*60 + H75)*1000+I75*10</f>
-        <v>67200</v>
+        <f t="shared" si="17"/>
+        <v>57900</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" ref="D75:D116" si="9">CONCATENATE(G75,":",H75,":",I75)</f>
-        <v>1:07:20</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>0:57:90</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="I75" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <f t="shared" si="0"/>
+        <v>58200</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:58:20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="8"/>
-        <v>67800</v>
-      </c>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:07:80</v>
-      </c>
-      <c r="E76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I76" s="5" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>58800</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:58:80</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="8"/>
-        <v>68400</v>
-      </c>
-      <c r="D77" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:08:40</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I77" s="5" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <f t="shared" si="0"/>
+        <v>59100</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:59:10</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <f t="shared" si="0"/>
+        <v>59400</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:59:40</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="8"/>
-        <v>68700</v>
-      </c>
-      <c r="D78" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:08:70</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="8"/>
-        <v>69000</v>
-      </c>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:09:00</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I79" s="5" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1:00:00</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="8"/>
-        <v>69600</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:09:60</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="I80" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <f t="shared" si="0"/>
+        <v>60600</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1:00:60</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="8"/>
-        <v>69900</v>
-      </c>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:09:90</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C82">
-        <f t="shared" si="8"/>
-        <v>70200</v>
+        <f t="shared" si="0"/>
+        <v>61200</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:10:20</v>
+        <f t="shared" si="1"/>
+        <v>1:01:20</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C83">
-        <f t="shared" si="8"/>
-        <v>70800</v>
+        <f t="shared" si="0"/>
+        <v>61800</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:10:80</v>
+        <f t="shared" si="1"/>
+        <v>1:01:80</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C84">
-        <f t="shared" si="8"/>
-        <v>71400</v>
+        <f t="shared" si="0"/>
+        <v>62400</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:11:40</v>
+        <f t="shared" si="1"/>
+        <v>1:02:40</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C85">
-        <f t="shared" si="8"/>
-        <v>72000</v>
+        <f t="shared" si="0"/>
+        <v>63000</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:12:00</v>
+        <f t="shared" si="1"/>
+        <v>1:03:00</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>81</v>
-      </c>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C86">
-        <f t="shared" si="8"/>
-        <v>72600</v>
+        <f t="shared" si="0"/>
+        <v>63600</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:12:60</v>
+        <f t="shared" si="1"/>
+        <v>1:03:60</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>81</v>
-      </c>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C87">
-        <f t="shared" si="8"/>
-        <v>73200</v>
+        <f t="shared" si="0"/>
+        <v>64200</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:13:20</v>
+        <f t="shared" si="1"/>
+        <v>1:04:20</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C88">
-        <f t="shared" si="8"/>
-        <v>73800</v>
+        <f t="shared" si="0"/>
+        <v>64800</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:13:80</v>
+        <f t="shared" si="1"/>
+        <v>1:04:80</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>81</v>
-      </c>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C89">
-        <f t="shared" si="8"/>
-        <v>74400</v>
+        <f t="shared" si="0"/>
+        <v>65400</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:14:40</v>
+        <f t="shared" si="1"/>
+        <v>1:05:40</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H89" s="5">
-        <v>14</v>
+      <c r="H89" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>81</v>
-      </c>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C90">
-        <f t="shared" si="8"/>
-        <v>75000</v>
+        <f t="shared" si="0"/>
+        <v>66000</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:15:00</v>
+        <f t="shared" si="1"/>
+        <v>1:06:00</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H90" s="5">
-        <v>15</v>
+      <c r="H90" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>81</v>
-      </c>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C91">
-        <f t="shared" si="8"/>
-        <v>75600</v>
+        <f t="shared" si="0"/>
+        <v>66600</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:15:60</v>
+        <f t="shared" si="1"/>
+        <v>1:06:60</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>81</v>
-      </c>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C92">
-        <f t="shared" si="8"/>
-        <v>76200</v>
+        <f t="shared" ref="C92:C133" si="18">(G92*60 + H92)*1000+I92*10</f>
+        <v>67200</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:16:20</v>
+        <f t="shared" ref="D92:D133" si="19">CONCATENATE(G92,":",H92,":",I92)</f>
+        <v>1:07:20</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>81</v>
-      </c>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C93">
-        <f t="shared" si="8"/>
-        <v>76800</v>
+        <f t="shared" si="18"/>
+        <v>67800</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:16:80</v>
+        <f t="shared" si="19"/>
+        <v>1:07:80</v>
+      </c>
+      <c r="E93" t="s">
+        <v>61</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>81</v>
-      </c>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C94">
-        <f t="shared" si="8"/>
-        <v>77400</v>
+        <f t="shared" si="18"/>
+        <v>68400</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:17:40</v>
-      </c>
-      <c r="E94" t="s">
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>1:08:40</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>81</v>
-      </c>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C95">
-        <f t="shared" si="8"/>
-        <v>78000</v>
+        <f t="shared" si="18"/>
+        <v>68700</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:18:00</v>
+        <f t="shared" si="19"/>
+        <v>1:08:70</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I95" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <f t="shared" si="18"/>
+        <v>69000</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:09:00</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I96" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="8"/>
-        <v>78300</v>
-      </c>
-      <c r="D96" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:18:30</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>81</v>
-      </c>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C97">
-        <f t="shared" si="8"/>
-        <v>78600</v>
+        <f t="shared" si="18"/>
+        <v>69600</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:18:60</v>
+        <f t="shared" si="19"/>
+        <v>1:09:60</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>81</v>
-      </c>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C98">
-        <f t="shared" si="8"/>
-        <v>79200</v>
+        <f t="shared" si="18"/>
+        <v>69900</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:19:20</v>
+        <f t="shared" si="19"/>
+        <v>1:09:90</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I98" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <f t="shared" si="18"/>
+        <v>70200</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:10:20</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I99" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="8"/>
-        <v>79500</v>
-      </c>
-      <c r="D99" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:19:50</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>81</v>
-      </c>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C100">
-        <f t="shared" si="8"/>
-        <v>79800</v>
+        <f t="shared" si="18"/>
+        <v>70800</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:19:80</v>
+        <f t="shared" si="19"/>
+        <v>1:10:80</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>81</v>
-      </c>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C101">
-        <f t="shared" si="8"/>
-        <v>80400</v>
+        <f t="shared" si="18"/>
+        <v>71400</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:20:40</v>
+        <f t="shared" si="19"/>
+        <v>1:11:40</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>81</v>
-      </c>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C102">
-        <f t="shared" si="8"/>
-        <v>81000</v>
+        <f t="shared" si="18"/>
+        <v>72000</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:21:00</v>
+        <f t="shared" si="19"/>
+        <v>1:12:00</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>81</v>
-      </c>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C103">
-        <f t="shared" si="8"/>
-        <v>81600</v>
+        <f t="shared" si="18"/>
+        <v>72600</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:21:60</v>
+        <f t="shared" si="19"/>
+        <v>1:12:60</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>81</v>
-      </c>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C104">
-        <f t="shared" si="8"/>
-        <v>82200</v>
+        <f t="shared" si="18"/>
+        <v>73200</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:22:20</v>
+        <f t="shared" si="19"/>
+        <v>1:13:20</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>81</v>
-      </c>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C105">
-        <f t="shared" si="8"/>
-        <v>87000</v>
+        <f t="shared" si="18"/>
+        <v>73800</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:27:00</v>
-      </c>
-      <c r="E105" t="s">
-        <v>69</v>
+        <f t="shared" si="19"/>
+        <v>1:13:80</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I105" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <f t="shared" si="18"/>
+        <v>74400</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:14:40</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H106" s="5">
+        <v>14</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <f t="shared" si="18"/>
+        <v>75000</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:15:00</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H107" s="5">
+        <v>15</v>
+      </c>
+      <c r="I107" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="8"/>
-        <v>87600</v>
-      </c>
-      <c r="D106" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:27:60</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I106" s="5" t="s">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <f t="shared" si="18"/>
+        <v>75600</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:15:60</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>81</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="8"/>
-        <v>87900</v>
-      </c>
-      <c r="D107" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:27:90</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="8"/>
-        <v>88200</v>
-      </c>
-      <c r="D108" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:28:20</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I108" s="5" t="s">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <f t="shared" si="18"/>
+        <v>76200</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:16:20</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I109" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>81</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="8"/>
-        <v>88800</v>
-      </c>
-      <c r="D109" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:28:80</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I109" s="5" t="s">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <f t="shared" si="18"/>
+        <v>76800</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:16:80</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I110" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>81</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="8"/>
-        <v>89100</v>
-      </c>
-      <c r="D110" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:29:10</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>81</v>
-      </c>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C111">
-        <f t="shared" si="8"/>
-        <v>89400</v>
+        <f t="shared" si="18"/>
+        <v>77400</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:29:40</v>
+        <f t="shared" si="19"/>
+        <v>1:17:40</v>
+      </c>
+      <c r="E111" t="s">
+        <v>66</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>81</v>
-      </c>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C112">
-        <f t="shared" si="8"/>
-        <v>90000</v>
+        <f t="shared" si="18"/>
+        <v>78000</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>1:30:00</v>
+        <f t="shared" si="19"/>
+        <v>1:18:00</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>81</v>
-      </c>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
+        <v>78300</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:18:30</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <f t="shared" si="18"/>
+        <v>78600</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:18:60</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <f t="shared" si="18"/>
+        <v>79200</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:19:20</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <f t="shared" si="18"/>
+        <v>79500</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:19:50</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <f t="shared" si="18"/>
+        <v>79800</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:19:80</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <f t="shared" si="18"/>
+        <v>80400</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:20:40</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <f t="shared" si="18"/>
+        <v>81000</v>
+      </c>
+      <c r="D119" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:21:00</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <f t="shared" si="18"/>
+        <v>81600</v>
+      </c>
+      <c r="D120" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:21:60</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <f t="shared" si="18"/>
+        <v>82200</v>
+      </c>
+      <c r="D121" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:22:20</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <f t="shared" si="18"/>
+        <v>87000</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:27:00</v>
+      </c>
+      <c r="E122" t="s">
+        <v>69</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <f t="shared" si="18"/>
+        <v>87600</v>
+      </c>
+      <c r="D123" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:27:60</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <f t="shared" si="18"/>
+        <v>87900</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:27:90</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <f t="shared" si="18"/>
+        <v>88200</v>
+      </c>
+      <c r="D125" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:28:20</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <f t="shared" si="18"/>
+        <v>88800</v>
+      </c>
+      <c r="D126" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:28:80</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <f t="shared" si="18"/>
+        <v>89100</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:29:10</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <f t="shared" si="18"/>
+        <v>89400</v>
+      </c>
+      <c r="D128" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:29:40</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <f t="shared" si="18"/>
+        <v>90000</v>
+      </c>
+      <c r="D129" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1:30:00</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <f t="shared" si="18"/>
         <v>90600</v>
       </c>
-      <c r="D113" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="D130" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>1:30:60</v>
       </c>
-      <c r="G113" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H113" s="5" t="s">
+      <c r="G130" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H130" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="I130" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>81</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="8"/>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <f t="shared" si="18"/>
         <v>91200</v>
       </c>
-      <c r="D114" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="D131" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>1:31:20</v>
       </c>
-      <c r="G114" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H114" s="5" t="s">
+      <c r="G131" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H131" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I114" s="5" t="s">
+      <c r="I131" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>81</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="8"/>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <f t="shared" si="18"/>
         <v>91800</v>
       </c>
-      <c r="D115" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="D132" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>1:31:80</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H115" s="5" t="s">
+      <c r="G132" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H132" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="I132" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="8"/>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <f t="shared" si="18"/>
         <v>96600</v>
       </c>
-      <c r="D116" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="D133" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>1:36:60</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E133" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H116" s="5" t="s">
+      <c r="G133" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H133" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I116" s="5" t="s">
+      <c r="I133" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
@@ -7512,8 +9771,118 @@
     <row r="380" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D380" s="1"/>
     </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D381" s="1"/>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D382" s="1"/>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D392" s="1"/>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D393" s="1"/>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D395" s="1"/>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D396" s="1"/>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D397" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J2:J105">
+    <cfRule type="expression" dxfId="43" priority="38">
+      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="39">
+      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="48">
+      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="49">
+      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="50">
+      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K89">
+    <cfRule type="expression" dxfId="36" priority="3">
+      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="4">
+      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="5">
+      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="6">
+      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="7">
+      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="8">
+      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="9">
+      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J76">
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>EXACT($B2,"r")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K81">
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>EXACT($B2,"l")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7523,8 +9892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C2239-5337-493D-BF32-9002E7D7184B}">
   <dimension ref="A1:K382"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="A1:E118"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7565,6 +9934,10 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -11048,7 +13421,56 @@
       <c r="D382" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="expression" dxfId="27" priority="8">
+      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="9">
+      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="10">
+      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="11">
+      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="12">
+      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="13">
+      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="14">
+      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="4">
+      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11056,10 +13478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B127A10-E90C-4366-A3BC-6BCBFDD58C3F}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11074,7 +13496,7 @@
     <col min="9" max="9" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11100,9 +13522,62 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Utility/xlsFiles/아기 알파카는 오늘도 꿈을 꾸고 있어요.xlsx
+++ b/Utility/xlsFiles/아기 알파카는 오늘도 꿈을 꾸고 있어요.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC025542-6D9A-45F7-B23E-FBFC83CBD440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F6719F-4481-44B3-BC31-6789E36D6AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="141">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,10 +445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +538,54 @@
   </si>
   <si>
     <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +617,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -581,11 +625,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -604,11 +663,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="256">
+  <dxfs count="239">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -818,20 +878,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -884,6 +930,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1144,13 +1204,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1205,42 +1258,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1255,6 +1273,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1307,48 +1381,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1359,6 +1391,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1411,6 +1492,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1515,6 +1610,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1619,6 +1728,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1671,48 +1794,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1723,6 +1804,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1733,6 +1870,48 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1743,6 +1922,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1847,6 +2082,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1953,42 +2202,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2003,6 +2224,48 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2013,6 +2276,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2023,6 +2342,48 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2071,462 +2432,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2816,7 +2721,7 @@
   <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2858,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" s="7"/>
     </row>
@@ -6020,94 +5925,94 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J3:J24">
-    <cfRule type="expression" dxfId="71" priority="22">
+    <cfRule type="expression" dxfId="78" priority="22">
       <formula>IF(AND(EXACT($A3,"w"), EXACT($B3,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="23">
+    <cfRule type="expression" dxfId="77" priority="23">
       <formula>IF(AND(EXACT($A3,"c"), EXACT($B3,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="24">
+    <cfRule type="expression" dxfId="76" priority="24">
       <formula>IF(AND(EXACT($A3,"m"), EXACT($B3,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="25">
+    <cfRule type="expression" dxfId="75" priority="25">
       <formula>IF(AND(EXACT($A3,"y"), EXACT($B3,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="26">
+    <cfRule type="expression" dxfId="74" priority="26">
       <formula>IF(AND(EXACT($A3,"b"), EXACT($B3,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="27">
+    <cfRule type="expression" dxfId="73" priority="27">
       <formula>IF(AND(EXACT($A3,"g"), EXACT($B3,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="28">
+    <cfRule type="expression" dxfId="72" priority="28">
       <formula>IF(AND(EXACT($A3,"r"), EXACT($B3,"l")), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K24">
-    <cfRule type="expression" dxfId="64" priority="15">
+    <cfRule type="expression" dxfId="71" priority="15">
       <formula>IF(AND(EXACT($A3,"w"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="16">
+    <cfRule type="expression" dxfId="70" priority="16">
       <formula>IF(AND(EXACT($A3,"c"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="17">
+    <cfRule type="expression" dxfId="69" priority="17">
       <formula>IF(AND(EXACT($A3,"m"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="18">
+    <cfRule type="expression" dxfId="68" priority="18">
       <formula>IF(AND(EXACT($A3,"y"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="19">
+    <cfRule type="expression" dxfId="67" priority="19">
       <formula>IF(AND(EXACT($A3,"b"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="20">
+    <cfRule type="expression" dxfId="66" priority="20">
       <formula>IF(AND(EXACT($A3,"g"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="21">
+    <cfRule type="expression" dxfId="65" priority="21">
       <formula>IF(AND(EXACT($A3,"r"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="57" priority="8">
+    <cfRule type="expression" dxfId="64" priority="8">
       <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="63" priority="9">
       <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="10">
+    <cfRule type="expression" dxfId="62" priority="10">
       <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="11">
+    <cfRule type="expression" dxfId="61" priority="11">
       <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="12">
+    <cfRule type="expression" dxfId="60" priority="12">
       <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="13">
+    <cfRule type="expression" dxfId="59" priority="13">
       <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"l")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="14">
+    <cfRule type="expression" dxfId="58" priority="14">
       <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"l")), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5">
+    <cfRule type="expression" dxfId="53" priority="5">
       <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6">
+    <cfRule type="expression" dxfId="52" priority="6">
       <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"r")), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6118,10 +6023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07BD68-F4D3-493E-B579-B52A0BB22360}">
-  <dimension ref="A1:K397"/>
+  <dimension ref="A1:K380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6163,7 +6068,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" s="7"/>
     </row>
@@ -6172,14 +6077,14 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C91" si="0">(G2*60 + H2)*1000+I2*10</f>
+        <f t="shared" ref="C2:C74" si="0">(G2*60 + H2)*1000+I2*10</f>
         <v>5400</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D91" si="1">CONCATENATE(G2,":",H2,":",I2)</f>
+        <f t="shared" ref="D2:D74" si="1">CONCATENATE(G2,":",H2,":",I2)</f>
         <v>0:05:40</v>
       </c>
       <c r="E2" t="s">
@@ -6194,2873 +6099,3106 @@
       <c r="I2" s="5">
         <v>40</v>
       </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>10200</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:05:40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
+        <v>0:10:20</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5">
+        <v>20</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>15000</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:10:20</v>
+        <v>0:15:00</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5">
-        <v>20</v>
-      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>19800</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:10:20</v>
+        <v>0:19:80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="5">
-        <v>10</v>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:15:00</v>
+        <v>0:21:00</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>15000</v>
+        <f t="shared" ref="C7:C8" si="2">(G7*60 + H7)*1000+I7*10</f>
+        <v>22200</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:15:00</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
+        <f t="shared" ref="D7:D8" si="3">CONCATENATE(G7,":",H7,":",I7)</f>
+        <v>0:22:20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>19800</v>
+        <f t="shared" si="2"/>
+        <v>22800</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:19:80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0:22:80</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9" si="2">(G9*60 + H9)*1000+I9*10</f>
-        <v>19800</v>
+        <f t="shared" ref="C9:C11" si="4">(G9*60 + H9)*1000+I9*10</f>
+        <v>23400</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9" si="3">CONCATENATE(G9,":",H9,":",I9)</f>
-        <v>0:19:80</v>
+        <f t="shared" ref="D9:D11" si="5">CONCATENATE(G9,":",H9,":",I9)</f>
+        <v>0:23:40</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>104</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>21000</v>
+        <f t="shared" si="4"/>
+        <v>24000</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:21:00</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0:24:00</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>21000</v>
+        <f t="shared" si="4"/>
+        <v>24600</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:21:00</v>
+        <f t="shared" si="5"/>
+        <v>0:24:60</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C15" si="4">(G12*60 + H12)*1000+I12*10</f>
-        <v>22200</v>
+        <f t="shared" si="0"/>
+        <v>29400</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" ref="D12:D15" si="5">CONCATENATE(G12,":",H12,":",I12)</f>
-        <v>0:22:20</v>
+        <f t="shared" si="1"/>
+        <v>0:29:40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
-        <v>22200</v>
+        <f t="shared" si="0"/>
+        <v>30600</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>0:22:20</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>0:30:60</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
-        <v>22800</v>
+        <f t="shared" ref="C14:C18" si="6">(G14*60 + H14)*1000+I14*10</f>
+        <v>31800</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>0:22:80</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>104</v>
+        <f t="shared" ref="D14:D18" si="7">CONCATENATE(G14,":",H14,":",I14)</f>
+        <v>0:31:80</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
-        <v>22800</v>
+        <f t="shared" si="6"/>
+        <v>32400</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>0:22:80</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>104</v>
+        <f t="shared" si="7"/>
+        <v>0:32:40</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C21" si="6">(G16*60 + H16)*1000+I16*10</f>
-        <v>23400</v>
+        <f t="shared" si="6"/>
+        <v>33000</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D21" si="7">CONCATENATE(G16,":",H16,":",I16)</f>
-        <v>0:23:40</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>104</v>
+        <f t="shared" si="7"/>
+        <v>0:33:00</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <f t="shared" si="6"/>
-        <v>23400</v>
+        <v>33600</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0:23:40</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>104</v>
+        <v>0:33:60</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <f t="shared" si="6"/>
-        <v>24000</v>
+        <v>34200</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0:24:00</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>104</v>
+        <v>0:34:20</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
-        <v>24000</v>
+        <f t="shared" si="0"/>
+        <v>39000</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>0:24:00</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>0:39:00</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
-        <v>24600</v>
+        <f t="shared" si="0"/>
+        <v>39520</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>0:24:60</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>0:39:52</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
-        <v>24600</v>
+        <f t="shared" si="0"/>
+        <v>40200</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>0:24:60</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>0:40:20</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>29400</v>
+        <v>40800</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:29:40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>89</v>
+        <v>0:40:80</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>29400</v>
+        <v>41400</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:29:40</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>89</v>
+        <v>0:41:40</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
         <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>30600</v>
+        <v>42000</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:30:60</v>
+        <v>0:42:00</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>30600</v>
+        <f t="shared" ref="C25:C32" si="8">(G25*60 + H25)*1000+I25*10</f>
+        <v>42600</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:30:60</v>
+        <f t="shared" ref="D25:D32" si="9">CONCATENATE(G25,":",H25,":",I25)</f>
+        <v>0:42:60</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C34" si="8">(G26*60 + H26)*1000+I26*10</f>
-        <v>31800</v>
+        <f t="shared" si="8"/>
+        <v>42900</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" ref="D26:D34" si="9">CONCATENATE(G26,":",H26,":",I26)</f>
-        <v>0:31:80</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0:42:90</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C27">
         <f t="shared" si="8"/>
-        <v>31800</v>
+        <v>43200</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0:31:80</v>
+        <v>0:43:20</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I27" s="5">
+        <v>20</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C28">
         <f t="shared" si="8"/>
-        <v>32400</v>
+        <v>43500</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0:32:40</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
+        <v>0:43:50</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C29">
         <f t="shared" si="8"/>
-        <v>32400</v>
+        <v>43800</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0:32:40</v>
+        <v>0:43:80</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
       </c>
       <c r="C30">
         <f t="shared" si="8"/>
-        <v>33000</v>
+        <v>44400</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0:33:00</v>
+        <v>0:44:40</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <f t="shared" si="8"/>
-        <v>33000</v>
+        <v>45000</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0:33:00</v>
+        <v>0:45:00</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C32">
         <f t="shared" si="8"/>
-        <v>33600</v>
+        <v>45600</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0:33:60</v>
+        <v>0:45:60</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C33">
-        <f t="shared" si="8"/>
-        <v>33600</v>
+        <f t="shared" si="0"/>
+        <v>46200</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0:33:60</v>
+        <f t="shared" si="1"/>
+        <v>0:46:20</v>
       </c>
       <c r="G33" s="5">
         <v>0</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C34">
-        <f t="shared" si="8"/>
-        <v>34200</v>
+        <f t="shared" si="0"/>
+        <v>46800</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0:34:20</v>
+        <f t="shared" si="1"/>
+        <v>0:46:80</v>
       </c>
       <c r="G34" s="5">
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>34200</v>
+        <v>47400</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:34:20</v>
+        <v>0:47:40</v>
       </c>
       <c r="G35" s="5">
         <v>0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>39000</v>
+        <v>47700</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:39:00</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
+        <v>0:47:70</v>
       </c>
       <c r="G36" s="5">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
         <v>103</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>39520</v>
+        <f t="shared" ref="C37" si="10">(G37*60 + H37)*1000+I37*10</f>
+        <v>48000</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:39:52</v>
+        <f t="shared" ref="D37" si="11">CONCATENATE(G37,":",H37,":",I37)</f>
+        <v>0:48:00</v>
       </c>
       <c r="G37" s="5">
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38">
+        <f t="shared" ref="C38" si="12">(G38*60 + H38)*1000+I38*10</f>
+        <v>48300</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" ref="D38" si="13">CONCATENATE(G38,":",H38,":",I38)</f>
+        <v>0:48:30</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>40200</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:40:20</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I38" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>40800</v>
+        <v>48600</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:40:80</v>
+        <v>0:48:60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
       </c>
       <c r="G39" s="5">
         <v>0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>41400</v>
+        <v>49120</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:41:40</v>
+        <v>0:49:12</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>42000</v>
+        <v>49800</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:42:00</v>
+        <v>0:49:80</v>
       </c>
       <c r="G41" s="5">
         <v>0</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>50400</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:50:40</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:51:00</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:C49" si="10">(G42*60 + H42)*1000+I42*10</f>
-        <v>42600</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" ref="D42:D49" si="11">CONCATENATE(G42,":",H42,":",I42)</f>
-        <v>0:42:60</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="5" t="s">
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>51600</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:51:60</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="10"/>
-        <v>42900</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0:42:90</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="10"/>
-        <v>43200</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0:43:20</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="5">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>52200</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:52:20</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="10"/>
-        <v>43500</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0:43:50</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>121</v>
-      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C46">
-        <f t="shared" si="10"/>
-        <v>43800</v>
+        <f t="shared" si="0"/>
+        <v>52500</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0:43:80</v>
+        <f t="shared" si="1"/>
+        <v>0:52:50</v>
       </c>
       <c r="G46" s="5">
         <v>0</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>52800</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:52:80</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="10"/>
-        <v>44400</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0:44:40</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" t="s">
-        <v>121</v>
-      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C48">
-        <f t="shared" si="10"/>
-        <v>45000</v>
+        <f t="shared" si="0"/>
+        <v>53100</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0:45:00</v>
+        <f t="shared" si="1"/>
+        <v>0:53:10</v>
       </c>
       <c r="G48" s="5">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C49">
-        <f t="shared" si="10"/>
-        <v>45600</v>
+        <f t="shared" si="0"/>
+        <v>53400</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>0:45:60</v>
+        <f t="shared" si="1"/>
+        <v>0:53:40</v>
       </c>
       <c r="G49" s="5">
         <v>0</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>46200</v>
+        <v>54000</v>
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:46:20</v>
+        <v>0:54:00</v>
       </c>
       <c r="G50" s="5">
         <v>0</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>46800</v>
+        <v>54600</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:46:80</v>
+        <v>0:54:60</v>
       </c>
       <c r="G51" s="5">
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>47400</v>
+        <v>55200</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:47:40</v>
+        <v>0:55:20</v>
       </c>
       <c r="G52" s="5">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>47700</v>
+        <v>55800</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:47:70</v>
+        <v>0:55:80</v>
       </c>
       <c r="G53" s="5">
         <v>0</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C54">
-        <f t="shared" ref="C54" si="12">(G54*60 + H54)*1000+I54*10</f>
-        <v>48000</v>
+        <f t="shared" si="0"/>
+        <v>56400</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" ref="D54" si="13">CONCATENATE(G54,":",H54,":",I54)</f>
-        <v>0:48:00</v>
+        <f t="shared" si="1"/>
+        <v>0:56:40</v>
       </c>
       <c r="G54" s="5">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <f t="shared" ref="C55" si="14">(G55*60 + H55)*1000+I55*10</f>
-        <v>48300</v>
+        <v>57000</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" ref="D55" si="15">CONCATENATE(G55,":",H55,":",I55)</f>
-        <v>0:48:30</v>
+        <f t="shared" si="1"/>
+        <v>0:57:00</v>
       </c>
       <c r="G55" s="5">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C58" si="15">(G56*60 + H56)*1000+I56*10</f>
+        <v>57300</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:57:30</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>48600</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:48:60</v>
-      </c>
-      <c r="E56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" s="5" t="s">
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="15"/>
+        <v>57600</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0:57:60</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>49120</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:49:12</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
       <c r="C58">
-        <f t="shared" si="0"/>
-        <v>49800</v>
+        <f t="shared" si="15"/>
+        <v>57900</v>
       </c>
       <c r="D58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:49:80</v>
+        <v>0:57:90</v>
       </c>
       <c r="G58" s="5">
         <v>0</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>58200</v>
       </c>
       <c r="D59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:50:40</v>
+        <v>0:58:20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>51000</v>
+        <v>58800</v>
       </c>
       <c r="D60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:51:00</v>
+        <v>0:58:80</v>
       </c>
       <c r="G60" s="5">
         <v>0</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>51600</v>
+        <v>59100</v>
       </c>
       <c r="D61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:51:60</v>
+        <v>0:59:10</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>52200</v>
+        <v>59400</v>
       </c>
       <c r="D62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:52:20</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0</v>
+        <v>0:59:40</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>52800</v>
+        <v>60000</v>
       </c>
       <c r="D63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:52:80</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0</v>
+        <v>1:00:00</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>53400</v>
+        <v>60600</v>
       </c>
       <c r="D64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:53:40</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0</v>
+        <v>1:00:60</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>54000</v>
+        <v>61200</v>
       </c>
       <c r="D65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:54:00</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0</v>
+        <v>1:01:20</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>54600</v>
+        <v>61800</v>
       </c>
       <c r="D66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:54:60</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0</v>
+        <v>1:01:80</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>55200</v>
+        <v>62400</v>
       </c>
       <c r="D67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:55:20</v>
-      </c>
-      <c r="G67" s="5">
-        <v>0</v>
+        <v>1:02:40</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
       <c r="C68">
         <f t="shared" si="0"/>
-        <v>55800</v>
+        <v>63000</v>
       </c>
       <c r="D68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:55:80</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0</v>
+        <v>1:03:00</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
       <c r="C69">
         <f t="shared" si="0"/>
-        <v>56400</v>
+        <v>63600</v>
       </c>
       <c r="D69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:56:40</v>
-      </c>
-      <c r="G69" s="5">
-        <v>0</v>
+        <v>1:03:60</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I69" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="0"/>
+        <v>64200</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1:04:20</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="0"/>
+        <v>64800</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1:04:80</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="0"/>
+        <v>65400</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1:05:40</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>::</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>::</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>106</v>
-      </c>
-      <c r="B72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72">
-        <f t="shared" ref="C72" si="16">(G72*60 + H72)*1000+I72*10</f>
-        <v>57000</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:57:00</v>
-      </c>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I72" s="5" t="s">
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1:06:00</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I73" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ref="C73:D75" si="17">(G73*60 + H73)*1000+I73*10</f>
-        <v>57300</v>
-      </c>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:57:30</v>
-      </c>
-      <c r="G73" s="5">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5" t="s">
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" t="s">
         <v>129</v>
       </c>
-      <c r="I73" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" t="s">
-        <v>121</v>
-      </c>
       <c r="C74">
-        <f t="shared" si="17"/>
-        <v>57600</v>
+        <f t="shared" si="0"/>
+        <v>66600</v>
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0:57:60</v>
-      </c>
-      <c r="G74" s="5">
-        <v>0</v>
+        <v>1:06:60</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C75">
+        <f t="shared" ref="C75:C116" si="16">(G75*60 + H75)*1000+I75*10</f>
+        <v>67200</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" ref="D75:D116" si="17">CONCATENATE(G75,":",H75,":",I75)</f>
+        <v>1:07:20</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="16"/>
+        <v>67800</v>
+      </c>
+      <c r="D76" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>57900</v>
-      </c>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:57:90</v>
-      </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5" t="s">
+        <v>1:07:80</v>
+      </c>
+      <c r="E76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" t="s">
         <v>129</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C76">
-        <f t="shared" si="0"/>
-        <v>58200</v>
-      </c>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:58:20</v>
-      </c>
-      <c r="E76" t="s">
-        <v>48</v>
-      </c>
-      <c r="G76" s="5">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C77">
-        <f t="shared" si="0"/>
-        <v>58800</v>
+        <f t="shared" si="16"/>
+        <v>68400</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:58:80</v>
-      </c>
-      <c r="G77" s="5">
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1:08:40</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
       <c r="C78">
-        <f t="shared" si="0"/>
-        <v>59100</v>
+        <f t="shared" si="16"/>
+        <v>68700</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:59:10</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1:08:70</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I78" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="16"/>
+        <v>69000</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:09:00</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="16"/>
+        <v>69600</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:09:60</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="16"/>
+        <v>69900</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:09:90</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="16"/>
+        <v>70200</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:10:20</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C79">
-        <f t="shared" si="0"/>
-        <v>59400</v>
-      </c>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>0:59:40</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C80">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:00:00</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C81">
-        <f t="shared" si="0"/>
-        <v>60600</v>
-      </c>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:00:60</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C82">
-        <f t="shared" si="0"/>
-        <v>61200</v>
-      </c>
-      <c r="D82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:01:20</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
       <c r="C83">
-        <f t="shared" si="0"/>
-        <v>61800</v>
+        <f t="shared" si="16"/>
+        <v>70800</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:01:80</v>
+        <f t="shared" si="17"/>
+        <v>1:10:80</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
       <c r="C84">
-        <f t="shared" si="0"/>
-        <v>62400</v>
+        <f t="shared" si="16"/>
+        <v>71400</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:02:40</v>
+        <f t="shared" si="17"/>
+        <v>1:11:40</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" t="s">
+        <v>129</v>
+      </c>
       <c r="C85">
-        <f t="shared" si="0"/>
-        <v>63000</v>
+        <f t="shared" si="16"/>
+        <v>72000</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:03:00</v>
+        <f t="shared" si="17"/>
+        <v>1:12:00</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" t="s">
+        <v>129</v>
+      </c>
       <c r="C86">
-        <f t="shared" si="0"/>
-        <v>63600</v>
+        <f t="shared" si="16"/>
+        <v>72600</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:03:60</v>
+        <f t="shared" si="17"/>
+        <v>1:12:60</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
       <c r="C87">
-        <f t="shared" si="0"/>
-        <v>64200</v>
+        <f t="shared" si="16"/>
+        <v>73200</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:04:20</v>
+        <f t="shared" si="17"/>
+        <v>1:13:20</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" t="s">
+        <v>129</v>
+      </c>
       <c r="C88">
-        <f t="shared" si="0"/>
-        <v>64800</v>
+        <f t="shared" si="16"/>
+        <v>73800</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:04:80</v>
+        <f t="shared" si="17"/>
+        <v>1:13:80</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
       <c r="C89">
-        <f t="shared" si="0"/>
-        <v>65400</v>
+        <f t="shared" si="16"/>
+        <v>74400</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:05:40</v>
+        <f t="shared" si="17"/>
+        <v>1:14:40</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H89" s="5" t="s">
-        <v>8</v>
+      <c r="H89" s="5">
+        <v>14</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
       <c r="C90">
-        <f t="shared" si="0"/>
-        <v>66000</v>
+        <f t="shared" si="16"/>
+        <v>75000</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:06:00</v>
+        <f t="shared" si="17"/>
+        <v>1:15:00</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>54</v>
+      <c r="H90" s="5">
+        <v>15</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" t="s">
+        <v>129</v>
+      </c>
       <c r="C91">
-        <f t="shared" si="0"/>
-        <v>66600</v>
+        <f t="shared" si="16"/>
+        <v>75600</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1:06:60</v>
+        <f t="shared" si="17"/>
+        <v>1:15:60</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
       <c r="C92">
-        <f t="shared" ref="C92:C133" si="18">(G92*60 + H92)*1000+I92*10</f>
-        <v>67200</v>
+        <f t="shared" si="16"/>
+        <v>76200</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" ref="D92:D133" si="19">CONCATENATE(G92,":",H92,":",I92)</f>
-        <v>1:07:20</v>
+        <f t="shared" si="17"/>
+        <v>1:16:20</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
       <c r="C93">
-        <f t="shared" si="18"/>
-        <v>67800</v>
+        <f t="shared" si="16"/>
+        <v>76800</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:07:80</v>
-      </c>
-      <c r="E93" t="s">
-        <v>61</v>
+        <f t="shared" si="17"/>
+        <v>1:16:80</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
       <c r="C94">
-        <f t="shared" si="18"/>
-        <v>68400</v>
+        <f t="shared" si="16"/>
+        <v>77400</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:08:40</v>
+        <f t="shared" si="17"/>
+        <v>1:17:40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>66</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
       <c r="C95">
-        <f t="shared" si="18"/>
-        <v>68700</v>
+        <f t="shared" si="16"/>
+        <v>78000</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:08:70</v>
+        <f t="shared" si="17"/>
+        <v>1:18:00</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
       <c r="C96">
-        <f t="shared" si="18"/>
-        <v>69000</v>
+        <f t="shared" si="16"/>
+        <v>78300</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:09:00</v>
+        <f t="shared" si="17"/>
+        <v>1:18:30</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
       <c r="C97">
-        <f t="shared" si="18"/>
-        <v>69600</v>
+        <f t="shared" si="16"/>
+        <v>78600</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:09:60</v>
+        <f t="shared" si="17"/>
+        <v>1:18:60</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" t="s">
+        <v>129</v>
+      </c>
       <c r="C98">
-        <f t="shared" si="18"/>
-        <v>69900</v>
+        <f t="shared" si="16"/>
+        <v>79200</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:09:90</v>
+        <f t="shared" si="17"/>
+        <v>1:19:20</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" t="s">
+        <v>129</v>
+      </c>
       <c r="C99">
-        <f t="shared" si="18"/>
-        <v>70200</v>
+        <f t="shared" si="16"/>
+        <v>79500</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:10:20</v>
+        <f t="shared" si="17"/>
+        <v>1:19:50</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
       <c r="C100">
-        <f t="shared" si="18"/>
-        <v>70800</v>
+        <f t="shared" si="16"/>
+        <v>79800</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:10:80</v>
+        <f t="shared" si="17"/>
+        <v>1:19:80</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
       <c r="C101">
-        <f t="shared" si="18"/>
-        <v>71400</v>
+        <f t="shared" si="16"/>
+        <v>80400</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:11:40</v>
+        <f t="shared" si="17"/>
+        <v>1:20:40</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" t="s">
+        <v>129</v>
+      </c>
       <c r="C102">
-        <f t="shared" si="18"/>
-        <v>72000</v>
+        <f t="shared" si="16"/>
+        <v>81000</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:12:00</v>
+        <f t="shared" si="17"/>
+        <v>1:21:00</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" t="s">
+        <v>129</v>
+      </c>
       <c r="C103">
-        <f t="shared" si="18"/>
-        <v>72600</v>
+        <f t="shared" si="16"/>
+        <v>81600</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:12:60</v>
+        <f t="shared" si="17"/>
+        <v>1:21:60</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" t="s">
+        <v>129</v>
+      </c>
       <c r="C104">
-        <f t="shared" si="18"/>
-        <v>73200</v>
+        <f t="shared" si="16"/>
+        <v>82200</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:13:20</v>
+        <f t="shared" si="17"/>
+        <v>1:22:20</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
       <c r="C105">
-        <f t="shared" si="18"/>
-        <v>73800</v>
+        <f t="shared" si="16"/>
+        <v>87000</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:13:80</v>
+        <f t="shared" si="17"/>
+        <v>1:27:00</v>
+      </c>
+      <c r="E105" t="s">
+        <v>69</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="16"/>
+        <v>87600</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:27:60</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="16"/>
+        <v>87900</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:27:90</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="16"/>
+        <v>88200</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:28:20</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="16"/>
+        <v>88800</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:28:80</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I109" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C106">
-        <f t="shared" si="18"/>
-        <v>74400</v>
-      </c>
-      <c r="D106" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:14:40</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H106" s="5">
-        <v>14</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C107">
-        <f t="shared" si="18"/>
-        <v>75000</v>
-      </c>
-      <c r="D107" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:15:00</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H107" s="5">
-        <v>15</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C108">
-        <f t="shared" si="18"/>
-        <v>75600</v>
-      </c>
-      <c r="D108" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:15:60</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C109">
-        <f t="shared" si="18"/>
-        <v>76200</v>
-      </c>
-      <c r="D109" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:16:20</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
       <c r="C110">
-        <f t="shared" si="18"/>
-        <v>76800</v>
+        <f t="shared" si="16"/>
+        <v>89100</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:16:80</v>
+        <f t="shared" si="17"/>
+        <v>1:29:10</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
       <c r="C111">
-        <f t="shared" si="18"/>
-        <v>77400</v>
+        <f t="shared" si="16"/>
+        <v>89400</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:17:40</v>
-      </c>
-      <c r="E111" t="s">
-        <v>66</v>
+        <f t="shared" si="17"/>
+        <v>1:29:40</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
       <c r="C112">
-        <f t="shared" si="18"/>
-        <v>78000</v>
+        <f t="shared" si="16"/>
+        <v>90000</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:18:00</v>
+        <f t="shared" si="17"/>
+        <v>1:30:00</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
       <c r="C113">
-        <f t="shared" si="18"/>
-        <v>78300</v>
+        <f t="shared" si="16"/>
+        <v>90600</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:18:30</v>
+        <f t="shared" si="17"/>
+        <v>1:30:60</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
+        <v>129</v>
+      </c>
       <c r="C114">
-        <f t="shared" si="18"/>
-        <v>78600</v>
+        <f t="shared" si="16"/>
+        <v>91200</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:18:60</v>
+        <f t="shared" si="17"/>
+        <v>1:31:20</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="16"/>
+        <v>91800</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:31:80</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="16"/>
+        <v>96600</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:36:60</v>
+      </c>
+      <c r="E116" t="s">
+        <v>70</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C115">
-        <f t="shared" si="18"/>
-        <v>79200</v>
-      </c>
-      <c r="D115" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:19:20</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C116">
-        <f t="shared" si="18"/>
-        <v>79500</v>
-      </c>
-      <c r="D116" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:19:50</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C117">
-        <f t="shared" si="18"/>
-        <v>79800</v>
-      </c>
-      <c r="D117" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:19:80</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C118">
-        <f t="shared" si="18"/>
-        <v>80400</v>
-      </c>
-      <c r="D118" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:20:40</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C119">
-        <f t="shared" si="18"/>
-        <v>81000</v>
-      </c>
-      <c r="D119" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:21:00</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C120">
-        <f t="shared" si="18"/>
-        <v>81600</v>
-      </c>
-      <c r="D120" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:21:60</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C121">
-        <f t="shared" si="18"/>
-        <v>82200</v>
-      </c>
-      <c r="D121" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:22:20</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C122">
-        <f t="shared" si="18"/>
-        <v>87000</v>
-      </c>
-      <c r="D122" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:27:00</v>
-      </c>
-      <c r="E122" t="s">
-        <v>69</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C123">
-        <f t="shared" si="18"/>
-        <v>87600</v>
-      </c>
-      <c r="D123" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:27:60</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C124">
-        <f t="shared" si="18"/>
-        <v>87900</v>
-      </c>
-      <c r="D124" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:27:90</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C125">
-        <f t="shared" si="18"/>
-        <v>88200</v>
-      </c>
-      <c r="D125" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:28:20</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C126">
-        <f t="shared" si="18"/>
-        <v>88800</v>
-      </c>
-      <c r="D126" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:28:80</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C127">
-        <f t="shared" si="18"/>
-        <v>89100</v>
-      </c>
-      <c r="D127" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:29:10</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C128">
-        <f t="shared" si="18"/>
-        <v>89400</v>
-      </c>
-      <c r="D128" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:29:40</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C129">
-        <f t="shared" si="18"/>
-        <v>90000</v>
-      </c>
-      <c r="D129" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:30:00</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C130">
-        <f t="shared" si="18"/>
-        <v>90600</v>
-      </c>
-      <c r="D130" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:30:60</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C131">
-        <f t="shared" si="18"/>
-        <v>91200</v>
-      </c>
-      <c r="D131" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:31:20</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C132">
-        <f t="shared" si="18"/>
-        <v>91800</v>
-      </c>
-      <c r="D132" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:31:80</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C133">
-        <f t="shared" si="18"/>
-        <v>96600</v>
-      </c>
-      <c r="D133" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1:36:60</v>
-      </c>
-      <c r="E133" t="s">
-        <v>70</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
@@ -9770,117 +9908,89 @@
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D380" s="1"/>
-    </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D381" s="1"/>
-    </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D382" s="1"/>
-    </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D383" s="1"/>
-    </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D384" s="1"/>
-    </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D385" s="1"/>
-    </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D386" s="1"/>
-    </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D387" s="1"/>
-    </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D388" s="1"/>
-    </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D389" s="1"/>
-    </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D390" s="1"/>
-    </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D391" s="1"/>
-    </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D392" s="1"/>
-    </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D393" s="1"/>
-    </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D394" s="1"/>
-    </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D395" s="1"/>
-    </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D396" s="1"/>
-    </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D397" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J2:J105">
-    <cfRule type="expression" dxfId="43" priority="38">
-      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+  <conditionalFormatting sqref="J2:J88">
+    <cfRule type="expression" dxfId="50" priority="10">
+      <formula>IF(AND(EXACT($A2,"w"), (OR(EXACT($B2,"l"), EXACT($B2,"b")))), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
-      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="49" priority="46">
+      <formula>IF(AND(EXACT($A2,"c"), OR(EXACT($B2,"l"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
-      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="48" priority="47">
+      <formula>IF(AND(EXACT($A2,"m"), OR(EXACT($B2,"l"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>IF(AND(EXACT($A2,"y"), OR(EXACT($B2,"l"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="48">
-      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="46" priority="49">
+      <formula>IF(AND(EXACT($A2,"b"), OR(EXACT($B2,"l"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="49">
-      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="45" priority="56">
+      <formula>IF(AND(EXACT($A2,"g"), OR(EXACT($B2,"l"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="50">
-      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"l")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="44" priority="57">
+      <formula>IF(AND(EXACT($A2,"r"), (OR(EXACT($B2,"l"), EXACT($B2,"b")))), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K89">
-    <cfRule type="expression" dxfId="36" priority="3">
-      <formula>IF(AND(EXACT($A2,"w"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+  <conditionalFormatting sqref="K3:K72">
+    <cfRule type="expression" dxfId="43" priority="11">
+      <formula>IF(AND(EXACT($A3,"w"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="4">
-      <formula>IF(AND(EXACT($A2,"c"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="42" priority="12">
+      <formula>IF(AND(EXACT($A3,"c"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5">
-      <formula>IF(AND(EXACT($A2,"m"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="41" priority="13">
+      <formula>IF(AND(EXACT($A3,"m"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6">
-      <formula>IF(AND(EXACT($A2,"y"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="40" priority="14">
+      <formula>IF(AND(EXACT($A3,"y"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="7">
-      <formula>IF(AND(EXACT($A2,"b"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="39" priority="15">
+      <formula>IF(AND(EXACT($A3,"b"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8">
-      <formula>IF(AND(EXACT($A2,"g"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="38" priority="16">
+      <formula>IF(AND(EXACT($A3,"g"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9">
-      <formula>IF(AND(EXACT($A2,"r"), EXACT($B2,"r")), TRUE, FALSE)</formula>
+    <cfRule type="expression" dxfId="37" priority="17">
+      <formula>IF(AND(EXACT($A3,"r"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J76">
-    <cfRule type="expression" dxfId="29" priority="2">
-      <formula>EXACT($B2,"r")</formula>
+  <conditionalFormatting sqref="J2:J59 K2:K84">
+    <cfRule type="expression" dxfId="36" priority="58">
+      <formula>OR(EXACT($B2,"r"), EXACT($B2,"b"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K81">
-    <cfRule type="expression" dxfId="28" priority="1">
-      <formula>EXACT($B2,"l")</formula>
+  <conditionalFormatting sqref="K3:K64">
+    <cfRule type="expression" dxfId="35" priority="9">
+      <formula>EXACT($B3,"l")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K84">
+    <cfRule type="expression" dxfId="34" priority="1">
+      <formula>IF(AND(EXACT($A2,"w"), (OR(EXACT($B2,"r"), EXACT($B2,"b")))), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="2">
+      <formula>IF(AND(EXACT($A2,"c"), OR(EXACT($B2,"r"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="3">
+      <formula>IF(AND(EXACT($A2,"m"), OR(EXACT($B2,"r"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="4">
+      <formula>IF(AND(EXACT($A2,"y"), OR(EXACT($B2,"r"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="5">
+      <formula>IF(AND(EXACT($A2,"b"), OR(EXACT($B2,"r"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="6">
+      <formula>IF(AND(EXACT($A2,"g"), OR(EXACT($B2,"r"), EXACT($B2,"b"))), TRUE, FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="7">
+      <formula>IF(AND(EXACT($A2,"r"), (OR(EXACT($B2,"r"), EXACT($B2,"b")))), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9935,7 +10045,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" s="7"/>
     </row>
@@ -13523,7 +13633,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" s="7"/>
     </row>

--- a/Utility/xlsFiles/아기 알파카는 오늘도 꿈을 꾸고 있어요.xlsx
+++ b/Utility/xlsFiles/아기 알파카는 오늘도 꿈을 꾸고 있어요.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F6719F-4481-44B3-BC31-6789E36D6AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31ED98-951C-4536-B79B-7D95551BA7E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6025,8 +6025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07BD68-F4D3-493E-B579-B52A0BB22360}">
   <dimension ref="A1:K380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9914,7 +9914,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J2:J88">
+  <conditionalFormatting sqref="J2:J116">
     <cfRule type="expression" dxfId="50" priority="10">
       <formula>IF(AND(EXACT($A2,"w"), (OR(EXACT($B2,"l"), EXACT($B2,"b")))), TRUE, FALSE)</formula>
     </cfRule>
@@ -9937,7 +9937,7 @@
       <formula>IF(AND(EXACT($A2,"r"), (OR(EXACT($B2,"l"), EXACT($B2,"b")))), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K72">
+  <conditionalFormatting sqref="K3:K116">
     <cfRule type="expression" dxfId="43" priority="11">
       <formula>IF(AND(EXACT($A3,"w"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
@@ -9960,17 +9960,17 @@
       <formula>IF(AND(EXACT($A3,"r"), EXACT($B3,"r")), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J59 K2:K84">
+  <conditionalFormatting sqref="J2:K116">
     <cfRule type="expression" dxfId="36" priority="58">
       <formula>OR(EXACT($B2,"r"), EXACT($B2,"b"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K64">
+  <conditionalFormatting sqref="K3:K116">
     <cfRule type="expression" dxfId="35" priority="9">
       <formula>EXACT($B3,"l")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K84">
+  <conditionalFormatting sqref="K2:K116">
     <cfRule type="expression" dxfId="34" priority="1">
       <formula>IF(AND(EXACT($A2,"w"), (OR(EXACT($B2,"r"), EXACT($B2,"b")))), TRUE, FALSE)</formula>
     </cfRule>
